--- a/TA/编译原理2017.xlsx
+++ b/TA/编译原理2017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git_workstation\day-life\TA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandy\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="93">
   <si>
     <t>编号</t>
   </si>
@@ -624,6 +624,58 @@
   </si>
   <si>
     <t>A</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>成绩5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次作业只需要遵循规则，所以同学们都没有出现大问题，做得都很好！</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1046,10 +1098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1061,7 +1113,7 @@
     <col min="6" max="11" width="0" hidden="1"/>
     <col min="12" max="12" width="14" style="1"/>
     <col min="13" max="13" width="13.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6.375"/>
+    <col min="14" max="14" width="6.375" style="1"/>
     <col min="15" max="15" width="6.125"/>
     <col min="16" max="16" width="8"/>
     <col min="17" max="17" width="4.125"/>
@@ -1071,7 +1123,7 @@
     <col min="21" max="21" width="22.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1093,8 +1145,11 @@
       <c r="M1" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1116,8 +1171,11 @@
       <c r="M2" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1139,8 +1197,11 @@
       <c r="M3" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1162,8 +1223,11 @@
       <c r="M4" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1185,8 +1249,11 @@
       <c r="M5" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1208,8 +1275,11 @@
       <c r="M6" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1231,8 +1301,11 @@
       <c r="M7" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1254,8 +1327,11 @@
       <c r="M8" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1277,8 +1353,11 @@
       <c r="M9" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1300,8 +1379,11 @@
       <c r="M10" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1323,8 +1405,11 @@
       <c r="M11" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1346,8 +1431,11 @@
       <c r="M12" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1369,8 +1457,11 @@
       <c r="M13" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1392,8 +1483,11 @@
       <c r="M14" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1415,8 +1509,11 @@
       <c r="M15" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1438,8 +1535,11 @@
       <c r="M16" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1461,8 +1561,11 @@
       <c r="M17" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1484,8 +1587,11 @@
       <c r="M18" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1507,8 +1613,11 @@
       <c r="M19" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1530,8 +1639,11 @@
       <c r="M20" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -1553,8 +1665,11 @@
       <c r="M21" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1576,8 +1691,11 @@
       <c r="M22" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -1599,8 +1717,11 @@
       <c r="M23" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -1622,8 +1743,11 @@
       <c r="M24" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -1645,8 +1769,11 @@
       <c r="M25" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -1668,8 +1795,11 @@
       <c r="M26" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -1691,8 +1821,11 @@
       <c r="M27" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -1714,8 +1847,11 @@
       <c r="M28" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -1737,8 +1873,11 @@
       <c r="M29" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -1760,8 +1899,11 @@
       <c r="M30" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -1783,8 +1925,11 @@
       <c r="M31" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="42.95" customHeight="1">
+      <c r="N31" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="42.95" customHeight="1">
       <c r="D32" s="8" t="s">
         <v>70</v>
       </c>
@@ -1796,6 +1941,9 @@
       </c>
       <c r="M32" s="1" t="s">
         <v>78</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/TA/编译原理2017.xlsx
+++ b/TA/编译原理2017.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="120">
   <si>
     <t>编号</t>
   </si>
@@ -676,6 +676,114 @@
   </si>
   <si>
     <t>本次作业只需要遵循规则，所以同学们都没有出现大问题，做得都很好！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>成绩6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>成绩7</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>B+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>B+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>B+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>大多数人没有画出分析的语法树，没有体现自己思考的过程。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六章2题画抽象语法树，有部分同学没有理解属性的传递方式，图没有画完整。第七章1题，需要清楚符号的优先级，再由中缀转后缀。5题翻译三地址的时候需要将自己的翻译格式定义清楚，大部分逻辑性不那么强。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1098,10 +1206,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1114,8 +1222,8 @@
     <col min="12" max="12" width="14" style="1"/>
     <col min="13" max="13" width="13.5" style="1" customWidth="1"/>
     <col min="14" max="14" width="6.375" style="1"/>
-    <col min="15" max="15" width="6.125"/>
-    <col min="16" max="16" width="8"/>
+    <col min="15" max="15" width="9.375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.875" style="1" customWidth="1"/>
     <col min="17" max="17" width="4.125"/>
     <col min="18" max="18" width="5.625"/>
     <col min="19" max="19" width="7.25"/>
@@ -1123,7 +1231,7 @@
     <col min="21" max="21" width="22.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1148,8 +1256,14 @@
       <c r="N1" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1174,8 +1288,14 @@
       <c r="N2" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1200,8 +1320,14 @@
       <c r="N3" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1226,8 +1352,14 @@
       <c r="N4" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1252,8 +1384,14 @@
       <c r="N5" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1278,8 +1416,11 @@
       <c r="N6" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1304,8 +1445,14 @@
       <c r="N7" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1330,8 +1477,14 @@
       <c r="N8" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1356,8 +1509,14 @@
       <c r="N9" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1382,8 +1541,14 @@
       <c r="N10" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1408,8 +1573,14 @@
       <c r="N11" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1434,8 +1605,14 @@
       <c r="N12" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1460,8 +1637,14 @@
       <c r="N13" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1486,8 +1669,14 @@
       <c r="N14" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1512,8 +1701,14 @@
       <c r="N15" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1538,8 +1733,14 @@
       <c r="N16" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1564,8 +1765,11 @@
       <c r="N17" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="P17" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1590,8 +1794,14 @@
       <c r="N18" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1616,8 +1826,11 @@
       <c r="N19" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1642,8 +1855,14 @@
       <c r="N20" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -1668,8 +1887,14 @@
       <c r="N21" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1694,8 +1919,11 @@
       <c r="N22" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="P22" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -1720,8 +1948,14 @@
       <c r="N23" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -1746,8 +1980,14 @@
       <c r="N24" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -1772,8 +2012,14 @@
       <c r="N25" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="O25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -1798,8 +2044,14 @@
       <c r="N26" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="O26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -1824,8 +2076,11 @@
       <c r="N27" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="P27" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -1850,8 +2105,14 @@
       <c r="N28" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="O28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -1876,8 +2137,14 @@
       <c r="N29" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="O29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -1902,8 +2169,14 @@
       <c r="N30" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="O30" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -1928,8 +2201,14 @@
       <c r="N31" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" ht="42.95" customHeight="1">
+      <c r="O31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="42.95" customHeight="1">
       <c r="D32" s="8" t="s">
         <v>70</v>
       </c>
@@ -1944,6 +2223,12 @@
       </c>
       <c r="N32" s="1" t="s">
         <v>92</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/TA/编译原理2017.xlsx
+++ b/TA/编译原理2017.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="121">
   <si>
     <t>编号</t>
   </si>
@@ -784,6 +784,10 @@
   </si>
   <si>
     <t>第六章2题画抽象语法树，有部分同学没有理解属性的传递方式，图没有画完整。第七章1题，需要清楚符号的优先级，再由中缀转后缀。5题翻译三地址的时候需要将自己的翻译格式定义清楚，大部分逻辑性不那么强。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1208,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1419,6 +1423,9 @@
       <c r="O6" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="P6" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="5">

--- a/TA/编译原理2017.xlsx
+++ b/TA/编译原理2017.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="88">
   <si>
     <t xml:space="preserve">编号</t>
   </si>
@@ -103,6 +103,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">成绩</t>
     </r>
@@ -124,6 +125,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">成绩</t>
     </r>
@@ -145,6 +147,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">成绩</t>
     </r>
@@ -166,6 +169,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">成绩</t>
     </r>
@@ -187,6 +191,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">成绩</t>
     </r>
@@ -202,6 +207,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">成绩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">成绩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">10</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">阚舒</t>
   </si>
   <si>
@@ -313,6 +362,9 @@
     <t xml:space="preserve">201406020004</t>
   </si>
   <si>
+    <t xml:space="preserve">B-</t>
+  </si>
+  <si>
     <t xml:space="preserve">白洋</t>
   </si>
   <si>
@@ -732,6 +784,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">第六章</t>
     </r>
@@ -751,6 +804,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">题画抽象语法树，有部分同学没有理解属性的传递方式，图没有画完整。第七章</t>
     </r>
@@ -770,6 +824,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">题，需要清楚符号的优先级，再由中缀转后缀。</t>
     </r>
@@ -789,6 +844,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">题翻译三地址的时候需要将自己的翻译格式定义清楚，大部分逻辑性不那么强。</t>
     </r>
@@ -803,6 +859,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">本次作业大多数同学反应比较难</t>
     </r>
@@ -822,6 +879,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">第七题要结合前面的表达式和布尔表达式一起翻译</t>
     </r>
@@ -841,6 +899,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">最后一道题目要自己设计模式</t>
     </r>
@@ -860,6 +919,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">比较困难</t>
     </r>
@@ -879,6 +939,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">同学们在作业中要根据翻译模式翻译</t>
     </r>
@@ -898,6 +959,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">作业中没有体现大问题</t>
     </r>
@@ -917,6 +979,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">但这两道题目需要细致的计算和思考</t>
     </r>
@@ -936,6 +999,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">表扬李晨</t>
     </r>
@@ -955,6 +1019,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">刘剑锋</t>
     </r>
@@ -974,9 +1039,16 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">郝昕</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">部分同学的作业不是很认真，没有解题过程。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">本次作业中部分同学的题目没有完成，并且图画得不完整。</t>
   </si>
 </sst>
 </file>
@@ -986,7 +1058,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1033,12 +1105,6 @@
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans CJK SC Regular"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1108,10 +1174,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -1123,6 +1185,10 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -1150,18 +1216,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q32" activeCellId="0" sqref="Q32"/>
+      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O:O"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="7.81781376518219"/>
     <col collapsed="false" hidden="true" max="11" min="6" style="0" width="0"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="14.0323886639676"/>
@@ -1169,11 +1235,10 @@
     <col collapsed="false" hidden="false" max="14" min="14" style="1" width="6.31983805668016"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="11.3279352226721"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="5.67611336032389"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="7.2834008097166"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="11.3562753036437"/>
+    <col collapsed="false" hidden="false" max="19" min="18" style="1" width="5.67611336032389"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="22.7085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1196,1088 +1261,1288 @@
       <c r="L1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="R1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="n">
+      <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="B12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="B14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="B15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="7" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="L17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="L19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="B20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P19" s="0"/>
-      <c r="Q19" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="n">
-        <v>20</v>
-      </c>
       <c r="B21" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C21" s="3" t="n">
         <v>201406020027</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="n">
+      <c r="A22" s="5" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C22" s="3" t="n">
         <v>20146020014</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q23" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3" t="s">
+      <c r="R23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L25" s="1" t="s">
+      <c r="L29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="n">
+      <c r="S30" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="M31" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D32" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="M32" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="N32" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="O32" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="P32" s="5" t="s">
+      <c r="M32" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="Q32" s="5" t="s">
+      <c r="N32" s="4" t="s">
         <v>82</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R32" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="S32" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
